--- a/biology/Botanique/Scutellaria_alpina/Scutellaria_alpina.xlsx
+++ b/biology/Botanique/Scutellaria_alpina/Scutellaria_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scutellaria alpina, la scutellaire des Alpes, encore appelée toque des Alpes, est une plante à fleurs du genre Scutellaria et de la famille des Lamiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante de 10 à 40 cm de  hauteur, la tige rameuse à base ligneuse est couchée puis ascendante. Les feuilles ovales dentées à base arrondies sont portées par un pétiole court. Les fleurs sont groupées en épi terminal quadrangulaire dense sur des bractées parfois violacées; la corolle est bleu-violet de 2.5 à 3 cm de long, le tube et la lèvre inférieure sont blanchâtres. Le fruit est un akène pédicellé pubescent[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante de 10 à 40 cm de  hauteur, la tige rameuse à base ligneuse est couchée puis ascendante. Les feuilles ovales dentées à base arrondies sont portées par un pétiole court. Les fleurs sont groupées en épi terminal quadrangulaire dense sur des bractées parfois violacées; la corolle est bleu-violet de 2.5 à 3 cm de long, le tube et la lèvre inférieure sont blanchâtres. Le fruit est un akène pédicellé pubescent.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée en France. En 2021 elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
 Toutefois localement l'espèce peut se raréfier: elle est considérée Vulnérable (VU) en Bourgogne.
